--- a/analysis_draft2017b/csv/t03.xlsx
+++ b/analysis_draft2017b/csv/t03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Black carbon aerosol</t>
   </si>
@@ -58,55 +58,58 @@
     <t>Lifetime, days</t>
   </si>
   <si>
-    <t>+6.89 ± 0.00</t>
-  </si>
-  <si>
-    <t>-6.89 ± 0.00</t>
-  </si>
-  <si>
-    <t>-1.00 ± 0.00</t>
+    <t>+7.76 ± 0.00</t>
+  </si>
+  <si>
+    <t>-7.77 ± 0.00</t>
+  </si>
+  <si>
+    <t>-1.02 ± 0.00</t>
   </si>
   <si>
     <t>-0.03 ± 0.00</t>
   </si>
   <si>
-    <t>-5.50 ± 0.00</t>
-  </si>
-  <si>
-    <t>-0.37 ± 0.00</t>
+    <t>-6.31 ± 0.00</t>
+  </si>
+  <si>
+    <t>-0.42 ± 0.00</t>
+  </si>
+  <si>
+    <t>+0.11 ± 0.00</t>
+  </si>
+  <si>
+    <t>+5.19 ± 0.01</t>
+  </si>
+  <si>
+    <t>-7.76 ± 0.00</t>
+  </si>
+  <si>
+    <t>-1.83 ± 0.00</t>
+  </si>
+  <si>
+    <t>-0.00 ± 0.00</t>
+  </si>
+  <si>
+    <t>-5.56 ± 0.00</t>
+  </si>
+  <si>
+    <t>-0.36 ± 0.00</t>
   </si>
   <si>
     <t>+0.09 ± 0.00</t>
   </si>
   <si>
-    <t>+4.89 ± 0.01</t>
-  </si>
-  <si>
-    <t>-1.79 ± 0.00</t>
-  </si>
-  <si>
-    <t>-0.00 ± 0.00</t>
-  </si>
-  <si>
-    <t>-4.78 ± 0.00</t>
-  </si>
-  <si>
-    <t>-0.32 ± 0.00</t>
-  </si>
-  <si>
-    <t>+0.07 ± 0.00</t>
-  </si>
-  <si>
-    <t>+3.95 ± 0.01</t>
-  </si>
-  <si>
-    <t>+1.79 ± 0.00</t>
-  </si>
-  <si>
-    <t>-1.80 ± 0.00</t>
-  </si>
-  <si>
-    <t>-0.72 ± 0.00</t>
+    <t>+4.32 ± 0.01</t>
+  </si>
+  <si>
+    <t>+1.83 ± 0.00</t>
+  </si>
+  <si>
+    <t>-1.84 ± 0.00</t>
+  </si>
+  <si>
+    <t>-0.74 ± 0.00</t>
   </si>
   <si>
     <t>-0.05 ± 0.00</t>
@@ -115,7 +118,7 @@
     <t>+0.02 ± 0.00</t>
   </si>
   <si>
-    <t>+3.62 ± 0.02</t>
+    <t>+3.69 ± 0.01</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -520,7 +523,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -531,10 +534,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -542,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -553,7 +556,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -567,7 +570,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -581,10 +584,10 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -595,10 +598,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -609,10 +612,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -623,10 +626,10 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
